--- a/기획서/아이템 테이블.xlsx
+++ b/기획서/아이템 테이블.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김민성\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TeamProject2\TimeOut_1009\TimeOut\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C537916C-A656-422A-A3B3-54EE750C24CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779CAEC3-0290-44F8-921F-AA8555914038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8F5D77B1-2623-4699-921C-1C5A060BD47E}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{8F5D77B1-2623-4699-921C-1C5A060BD47E}"/>
   </bookViews>
   <sheets>
     <sheet name="장비 아이템 시트" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="89">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,6 +369,22 @@
   <si>
     <t>방어력 5% 증가(60초 지속)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 칸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리</t>
+  </si>
+  <si>
+    <t>몸통</t>
+  </si>
+  <si>
+    <t>다리</t>
+  </si>
+  <si>
+    <t>신발</t>
   </si>
 </sst>
 </file>
@@ -755,26 +771,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD63778E-C572-40A8-9F0B-239C964E45D8}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="3" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="87.375" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="23.75" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="3" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="87.375" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="20.125" customWidth="1"/>
+    <col min="10" max="10" width="23.75" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -785,25 +801,28 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -817,25 +836,28 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
         <v>46</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>6</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>3</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -849,25 +871,28 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>6</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>5</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -881,25 +906,28 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
         <v>48</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>6</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>2</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -913,25 +941,28 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
         <v>49</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="G5">
-        <v>13</v>
-      </c>
       <c r="H5">
+        <v>13</v>
+      </c>
+      <c r="I5">
         <v>15</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>6</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -945,25 +976,28 @@
         <v>31</v>
       </c>
       <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
         <v>50</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="G6">
-        <v>13</v>
-      </c>
       <c r="H6">
+        <v>13</v>
+      </c>
+      <c r="I6">
         <v>15</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>10</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -977,25 +1011,28 @@
         <v>32</v>
       </c>
       <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s">
         <v>51</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="G7">
-        <v>13</v>
-      </c>
       <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7">
         <v>15</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>4</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1009,25 +1046,28 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" t="s">
         <v>43</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>18</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>21</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>30</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>9</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1041,25 +1081,28 @@
         <v>31</v>
       </c>
       <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
         <v>52</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>18</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>21</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>30</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>15</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1073,25 +1116,28 @@
         <v>32</v>
       </c>
       <c r="E10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>21</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>30</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>6</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1105,25 +1151,28 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
         <v>45</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>6</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>5</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>3</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1137,25 +1186,28 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
         <v>53</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>15</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>6</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>5</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
       <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1169,25 +1221,28 @@
         <v>13</v>
       </c>
       <c r="E13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" t="s">
         <v>54</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>16</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>6</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>5</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1201,25 +1256,28 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" t="s">
         <v>55</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>17</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>6</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>5</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1233,25 +1291,28 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s">
         <v>60</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>14</v>
       </c>
-      <c r="G15">
-        <v>13</v>
-      </c>
       <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15">
         <v>10</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>5</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1265,25 +1326,28 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
         <v>57</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>15</v>
       </c>
-      <c r="G16">
-        <v>13</v>
-      </c>
       <c r="H16">
+        <v>13</v>
+      </c>
+      <c r="I16">
         <v>10</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1297,25 +1361,28 @@
         <v>13</v>
       </c>
       <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" t="s">
         <v>59</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>16</v>
       </c>
-      <c r="G17">
-        <v>13</v>
-      </c>
       <c r="H17">
+        <v>13</v>
+      </c>
+      <c r="I17">
         <v>10</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1329,25 +1396,28 @@
         <v>13</v>
       </c>
       <c r="E18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" t="s">
         <v>58</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>17</v>
       </c>
-      <c r="G18">
-        <v>13</v>
-      </c>
       <c r="H18">
+        <v>13</v>
+      </c>
+      <c r="I18">
         <v>10</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1361,25 +1431,28 @@
         <v>13</v>
       </c>
       <c r="E19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" t="s">
         <v>61</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>14</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>21</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>20</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>10</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1393,25 +1466,28 @@
         <v>13</v>
       </c>
       <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" t="s">
         <v>62</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>15</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>21</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>20</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1425,25 +1501,28 @@
         <v>13</v>
       </c>
       <c r="E21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" t="s">
         <v>63</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>16</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>21</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>20</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
       <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1457,21 +1536,24 @@
         <v>13</v>
       </c>
       <c r="E22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" t="s">
         <v>64</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>17</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>21</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>20</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
       <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>4</v>
       </c>
     </row>
